--- a/Monitoradores.xlsx
+++ b/Monitoradores.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Tipo Pessoa</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Ativo</t>
-  </si>
-  <si>
-    <t>Endereços</t>
   </si>
   <si>
     <t>FISICA ou JURIDICA</t>
@@ -119,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -168,25 +165,22 @@
       <c r="J1" t="s" s="1">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="1">
-        <v>10</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>11</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>12</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>2</v>
       </c>
       <c r="D2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>13</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>14</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>5</v>
@@ -195,13 +189,13 @@
         <v>6</v>
       </c>
       <c r="H2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="J2" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
